--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectRemove.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectRemove.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0377A632-997E-415F-937E-04A704ED6D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF2AFD9-9734-4CCE-BE5E-A2875D50670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -193,6 +182,14 @@
   </si>
   <si>
     <t>EffectRemove</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerTime_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除减cd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -601,22 +598,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,7 +642,7 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,7 +663,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -695,7 +692,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -718,7 +715,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -747,7 +744,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -766,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -782,6 +779,24 @@
       </c>
       <c r="G7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>EffectRemove_TowerTime_Hit1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
